--- a/data/georgia_census/imereti/wyaltubo/population_total.xlsx
+++ b/data/georgia_census/imereti/wyaltubo/population_total.xlsx
@@ -1366,13 +1366,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD521FB6-13EC-4061-BAA1-5844CB87E4CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11737CBD-98EE-4381-94DC-68A65A0C0BC2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D67DEFE2-606D-4E9D-A5A3-068062E60F1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDE47B3D-5EEA-44AF-B80B-72CA2EA74A2A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC136E-6FD3-4447-AFBE-2D48C95FDB58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D609CC65-086B-456C-B67B-0B90A60EAC72}"/>
 </file>